--- a/Project1/KWH_Forecast_ETS.xlsx
+++ b/Project1/KWH_Forecast_ETS.xlsx
@@ -366,62 +366,62 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9630546.763902405</v>
+        <v>9619138.272203546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>8159753.656100553</v>
+        <v>8177091.372112475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>6968134.643851133</v>
+        <v>6964251.994209854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>6289336.538394372</v>
+        <v>6275356.165735926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5928433.846398487</v>
+        <v>5935207.26546221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>7742981.558378736</v>
+        <v>7745568.724199782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>9355939.018663708</v>
+        <v>9348380.6498727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>9908285.942908561</v>
+        <v>9890592.480615152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9187315.004968315</v>
+        <v>9192788.087557402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>6672206.555722476</v>
+        <v>6677161.928517554</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>5823053.099394196</v>
+        <v>5817678.261253086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>7261192.761079608</v>
+        <v>7261266.697541231</v>
       </c>
     </row>
   </sheetData>
